--- a/Extras/Graficas.xlsx
+++ b/Extras/Graficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdelvil/Pictures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jsdelvil/Documents/REPOS/SVRSubsample/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2821CBB6-FDB6-634F-968B-F272D2C1EADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E19C0CD-224F-7841-822C-BECF590FD24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="4" xr2:uid="{1C566AD2-18D5-E740-AC70-6BCB52DEF956}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" activeTab="7" xr2:uid="{1C566AD2-18D5-E740-AC70-6BCB52DEF956}"/>
   </bookViews>
   <sheets>
     <sheet name="rbf time" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="12">
   <si>
     <t>Beijing PM2.5</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>SIGMOID</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -227,6 +224,81 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>&gt;61,200</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-C832-2442-89B2-069F27C19066}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:separator>, </c:separator>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-FEDB-4A48-ADF2-926801A1B659}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -328,23 +400,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>76.59</c:v>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>2841.98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.27</c:v>
+                  <c:v>225.34</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>505.65</c:v>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>28116.23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.91</c:v>
+                  <c:v>595.19000000000005</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>2068.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254.42</c:v>
+                  <c:v>5631.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +622,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -729,6 +801,35 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>&gt;61,200</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-3A93-E947-BAD4-3E58646D72C5}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -830,23 +931,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>52.94</c:v>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>3069.84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.2</c:v>
+                  <c:v>213.47</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>422.2</c:v>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>18549.29</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>37.56</c:v>
+                <c:pt idx="3" formatCode="#,##0.00">
+                  <c:v>461.85</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>2592.8000000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>124.63</c:v>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>23205.58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1052,7 +1153,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1231,6 +1332,107 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>&gt;61,20</a:t>
+                    </a:r>
+                    <a:fld id="{70F3CB25-1C87-DB4C-8787-9692DEE64FCC}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-A004-B74D-95A8-DE13D7EA0B1C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>&gt;61,200</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-A004-B74D-95A8-DE13D7EA0B1C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>&gt;61,200</a:t>
+                    </a:r>
+                    <a:fld id="{7744AB46-29F7-3B4A-B825-449B11FCFD1C}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0BB8-6E4A-B219-606CE9339BAA}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1330,25 +1532,25 @@
             <c:numRef>
               <c:f>'poly time'!$C$3:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>#,##0.00</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>77.27</c:v>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>108.58</c:v>
+                  <c:v>1463.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>732.24</c:v>
+                  <c:v>32871.360000000001</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>81.62</c:v>
+                <c:pt idx="3" formatCode="General">
+                  <c:v>654.25</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>1713.61</c:v>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>144.29</c:v>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1742,13 +1944,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>No terminó</a:t>
-                    </a:r>
-                  </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t> &gt;7,200</a:t>
+                      <a:t>&gt;61,200</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -1869,23 +2065,23 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>108.78</c:v>
+                <c:pt idx="0" formatCode="#,##0.00">
+                  <c:v>3881.38</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>231.51</c:v>
+                  <c:v>392.36</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>590.9</c:v>
+                <c:pt idx="2" formatCode="#,##0.00">
+                  <c:v>51547.839999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>135</c:v>
+                  <c:v>762.71</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>568.07000000000005</c:v>
+                <c:pt idx="5" formatCode="#,##0.00">
+                  <c:v>2370.85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2091,7 +2287,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2270,6 +2466,35 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>NA</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7A7F-0948-955E-6DD7B49DE913}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2372,22 +2597,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82.67</c:v>
+                  <c:v>77.790000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.22</c:v>
+                  <c:v>78.959999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>7759.07</c:v>
+                  <c:v>3719.68</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>4389.75</c:v>
+                  <c:v>4307.8500000000004</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>5.77</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.2080000000000002</c:v>
+                  <c:v>4.7699999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2772,6 +2997,35 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>NA</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-CCF8-B94D-BE7D-29E7B3F76D81}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -2874,22 +3128,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>87.72</c:v>
+                  <c:v>84.88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.53</c:v>
+                  <c:v>84.01</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>5371.78</c:v>
+                  <c:v>5449.76</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>5255.95</c:v>
+                  <c:v>5286.96</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>7.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.44</c:v>
+                  <c:v>7.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3274,6 +3528,93 @@
             </c:extLst>
           </c:dPt>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>NA</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-82F8-8440-A070-CC63BBA07780}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>NA</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-82F8-8440-A070-CC63BBA07780}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>NA</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7853-494B-AC55-D69A146378A2}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -3376,22 +3717,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>90.52</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.15</c:v>
+                  <c:v>97.25</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>7474.71</c:v>
+                  <c:v>6088.42</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>6172.74</c:v>
+                  <c:v>6437.45</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
-                  <c:v>7.68</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.88</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3788,12 +4129,6 @@
                       <a:t>NA </a:t>
                     </a:r>
                   </a:p>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>(No terminó)</a:t>
-                    </a:r>
-                  </a:p>
                 </c:rich>
               </c:tx>
               <c:showLegendKey val="0"/>
@@ -3913,22 +4248,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>319.33999999999997</c:v>
+                  <c:v>96.72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.55</c:v>
+                  <c:v>91.43</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0.00">
-                  <c:v>6464.75</c:v>
+                  <c:v>6285.68</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="#,##0.00">
-                  <c:v>6540.6</c:v>
+                  <c:v>6270.56</c:v>
                 </c:pt>
                 <c:pt idx="4" formatCode="#,##0.00">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10.62</c:v>
+                  <c:v>12.66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9207,7 +9542,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9227,8 +9562,8 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>76.59</v>
+      <c r="C3" s="1">
+        <v>2841.98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9236,7 +9571,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>11.27</v>
+        <v>225.34</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9246,8 +9581,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>505.65</v>
+      <c r="C5" s="1">
+        <v>28116.23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9255,7 +9590,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>45.91</v>
+        <v>595.19000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9266,15 +9601,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>2068.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>254.42</v>
+      <c r="C8" s="1">
+        <v>5631.04</v>
       </c>
     </row>
   </sheetData>
@@ -9288,7 +9623,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9308,8 +9643,8 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>52.94</v>
+      <c r="C3" s="1">
+        <v>3069.84</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9317,7 +9652,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>22.2</v>
+        <v>213.47</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9327,16 +9662,16 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>422.2</v>
+      <c r="C5" s="1">
+        <v>18549.29</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>37.56</v>
+      <c r="C6" s="1">
+        <v>461.85</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9347,15 +9682,15 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>2592.8000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>124.63</v>
+      <c r="C8" s="1">
+        <v>23205.58</v>
       </c>
     </row>
   </sheetData>
@@ -9369,7 +9704,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9390,15 +9725,15 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>77.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
-        <v>108.58</v>
+      <c r="C4" s="1">
+        <v>1463.93</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9408,8 +9743,8 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>732.24</v>
+      <c r="C5" s="1">
+        <v>32871.360000000001</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9417,7 +9752,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>81.62</v>
+        <v>654.25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9428,7 +9763,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>1713.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9436,7 +9771,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>144.29</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9447,10 +9782,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FBBA7BA-F670-A640-82D8-D172DFD4E5D4}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9458,50 +9793,50 @@
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <v>108.78</v>
+      <c r="C3" s="1">
+        <v>3881.38</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>231.51</v>
+        <v>392.36</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
-        <v>590.9</v>
+      <c r="C5" s="1">
+        <v>51547.839999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>135</v>
+        <v>762.71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -9512,15 +9847,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
-        <v>568.07000000000005</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
+      <c r="C8" s="1">
+        <v>2370.85</v>
       </c>
     </row>
   </sheetData>
@@ -9533,8 +9865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4587C351-4ECB-D449-BBB1-67A8C7A197F9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9555,7 +9887,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>82.67</v>
+        <v>77.790000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9563,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>79.22</v>
+        <v>78.959999999999994</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9574,7 +9906,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>7759.07</v>
+        <v>3719.68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9582,7 +9914,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>4389.75</v>
+        <v>4307.8500000000004</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9593,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>5.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9601,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5.2080000000000002</v>
+        <v>4.7699999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -9615,7 +9947,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9636,7 +9968,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>87.72</v>
+        <v>84.88</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9644,7 +9976,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>86.53</v>
+        <v>84.01</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9655,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>5371.78</v>
+        <v>5449.76</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9663,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>5255.95</v>
+        <v>5286.96</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9674,7 +10006,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>7.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9682,7 +10014,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7.44</v>
+        <v>7.26</v>
       </c>
     </row>
   </sheetData>
@@ -9696,7 +10028,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9717,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>90.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9725,7 +10057,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>93.15</v>
+        <v>97.25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9736,7 +10068,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>7474.71</v>
+        <v>6088.42</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9744,7 +10076,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>6172.74</v>
+        <v>6437.45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9755,7 +10087,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>7.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -9763,7 +10095,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7.88</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9776,8 +10108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E52F57D-AC31-8F4C-ABAC-58BC9A2C50EC}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9798,7 +10130,7 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>319.33999999999997</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9806,7 +10138,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>93.55</v>
+        <v>91.43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9817,7 +10149,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>6464.75</v>
+        <v>6285.68</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -9825,7 +10157,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>6540.6</v>
+        <v>6270.56</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -9844,7 +10176,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>10.62</v>
+        <v>12.66</v>
       </c>
     </row>
   </sheetData>
